--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\STATISTICS\NON STUDY FOLDER\Academic Research\Eudract Tool\testing\"/>
@@ -15,7 +15,7 @@
     <sheet name="tests" sheetId="1" r:id="rId1"/>
     <sheet name="drop down lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -75,21 +75,12 @@
     <t>Input Data</t>
   </si>
   <si>
-    <t>Check accepts Valid SOC</t>
-  </si>
-  <si>
-    <t>Check reckects invalid SOC</t>
-  </si>
-  <si>
     <t>Check the length of treatment group is &gt;=4</t>
   </si>
   <si>
     <t>Check valid values (Serious, Related, Fatal)</t>
   </si>
   <si>
-    <t>Check invalid valuse (Serious, Related, Fatal)</t>
-  </si>
-  <si>
     <t>Statistical Calculations</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Check for root tag &lt;TABLE&gt; &lt;/TABLE&gt;</t>
   </si>
   <si>
-    <t>check against an xsd schema in correct/incorrect cases</t>
-  </si>
-  <si>
     <t>xslt conversion to eudract</t>
   </si>
   <si>
@@ -160,12 +148,79 @@
   </si>
   <si>
     <t>Replication of process with R, SAS,stata (save the pdf report generated)</t>
+  </si>
+  <si>
+    <t>Check the presence of the minimal set of variables: patient ID, Description of the event, SOC, Serious, Related, Fatal, treatment group</t>
+  </si>
+  <si>
+    <t>Minimal Set of variables is present</t>
+  </si>
+  <si>
+    <t>Check variable 'Description' is not null</t>
+  </si>
+  <si>
+    <t>Description should always be completed as only records of occurred event should be in the file.</t>
+  </si>
+  <si>
+    <t>Check the GROUP file contains exactely the following variables
+• title 
+• deathsResultingFromAdverseEvents
+• subjectsAffectedBySeriousAdverseEvents
+• subjectsAffectedByNonSeriousAdverseEvents
+• subjectsExposed
+• deathsAllCauses</t>
+  </si>
+  <si>
+    <t>Check the NON_SERIOUS file contains exactely the following variables
+• groupTitle
+• subjectsAffected
+• occurrences
+• term
+• eutctId</t>
+  </si>
+  <si>
+    <t>Check the NON_SERIOUS file contains exactely the following variables
+• groupTitle
+• subjectsAffected
+• occurrences
+• term
+• eutctId
+• occurrencesCausallyRelatedToTreatment
+• deaths
+• deathsCausallyRelatedToTreatment</t>
+  </si>
+  <si>
+    <t>All variable names are present and match</t>
+  </si>
+  <si>
+    <t>validate simple.xml against an xsd schema in correct/incorrect cases</t>
+  </si>
+  <si>
+    <t>check concatenation order is respected</t>
+  </si>
+  <si>
+    <t>format is recognised and upload completed without any errors triggered.</t>
+  </si>
+  <si>
+    <t>file is rejected (review list of errors)</t>
+  </si>
+  <si>
+    <t>Check rejects invalid SOC</t>
+  </si>
+  <si>
+    <t>Check accepts valid SOC</t>
+  </si>
+  <si>
+    <t>Check invalid values (Serious, Related, Fatal)</t>
+  </si>
+  <si>
+    <t>Randomly select 2 specific events, ideally 1 per group, and verify their integrity is mantained through all the transformations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,9 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,137 +623,193 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +822,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D11 D13:D1048576 E1:E11 E13:E1048576</xm:sqref>
+          <xm:sqref>D1:E11 D13:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -24,6 +24,65 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Beatrice Pantaleo</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Beatrice Pantaleo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+which file and variable is this referring to?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Beatrice Pantaleo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+what are the valid values?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
@@ -179,7 +238,34 @@
 • eutctId</t>
   </si>
   <si>
-    <t>Check the NON_SERIOUS file contains exactely the following variables
+    <t>All variable names are present and match</t>
+  </si>
+  <si>
+    <t>validate simple.xml against an xsd schema in correct/incorrect cases</t>
+  </si>
+  <si>
+    <t>check concatenation order is respected</t>
+  </si>
+  <si>
+    <t>format is recognised and upload completed without any errors triggered.</t>
+  </si>
+  <si>
+    <t>file is rejected (review list of errors)</t>
+  </si>
+  <si>
+    <t>Check rejects invalid SOC</t>
+  </si>
+  <si>
+    <t>Check accepts valid SOC</t>
+  </si>
+  <si>
+    <t>Check invalid values (Serious, Related, Fatal)</t>
+  </si>
+  <si>
+    <t>Randomly select 2 specific events, ideally 1 per group, and verify their integrity is mantained through all the transformations.</t>
+  </si>
+  <si>
+    <t>Check the SERIOUS file contains exactely the following variables
 • groupTitle
 • subjectsAffected
 • occurrences
@@ -189,39 +275,12 @@
 • deaths
 • deathsCausallyRelatedToTreatment</t>
   </si>
-  <si>
-    <t>All variable names are present and match</t>
-  </si>
-  <si>
-    <t>validate simple.xml against an xsd schema in correct/incorrect cases</t>
-  </si>
-  <si>
-    <t>check concatenation order is respected</t>
-  </si>
-  <si>
-    <t>format is recognised and upload completed without any errors triggered.</t>
-  </si>
-  <si>
-    <t>file is rejected (review list of errors)</t>
-  </si>
-  <si>
-    <t>Check rejects invalid SOC</t>
-  </si>
-  <si>
-    <t>Check accepts valid SOC</t>
-  </si>
-  <si>
-    <t>Check invalid values (Serious, Related, Fatal)</t>
-  </si>
-  <si>
-    <t>Randomly select 2 specific events, ideally 1 per group, and verify their integrity is mantained through all the transformations.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +295,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,17 +616,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
@@ -618,95 +690,95 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="106.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,12 +824,12 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -780,7 +852,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,6 +887,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -822,7 +895,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:E11 D13:E1048576</xm:sqref>
+          <xm:sqref>D1:E11 D16:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -24,67 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Beatrice Pantaleo</author>
-  </authors>
-  <commentList>
-    <comment ref="B18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Beatrice Pantaleo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-which file and variable is this referring to?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Beatrice Pantaleo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-what are the valid values?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -132,9 +73,6 @@
   </si>
   <si>
     <t>Input Data</t>
-  </si>
-  <si>
-    <t>Check the length of treatment group is &gt;=4</t>
   </si>
   <si>
     <t>Check valid values (Serious, Related, Fatal)</t>
@@ -251,9 +189,6 @@
   </si>
   <si>
     <t>file is rejected (review list of errors)</t>
-  </si>
-  <si>
-    <t>Check rejects invalid SOC</t>
   </si>
   <si>
     <t>Check accepts valid SOC</t>
@@ -275,12 +210,24 @@
 • deaths
 • deathsCausallyRelatedToTreatment</t>
   </si>
+  <si>
+    <t>Check accepts valid term</t>
+  </si>
+  <si>
+    <t>All SOC find correspondence in the allsoc file</t>
+  </si>
+  <si>
+    <t>All terms find correspondence in the allsoc file</t>
+  </si>
+  <si>
+    <t>Check the variable title in the GROUP.csv file is a string &gt;=4 digits long</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,19 +242,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -616,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,199 +629,206 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>53</v>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
         <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
         <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
         <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -895,7 +836,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:E11 D16:E1048576</xm:sqref>
+          <xm:sqref>D1:E11 D17:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Input Data</t>
   </si>
   <si>
-    <t>Check valid values (Serious, Related, Fatal)</t>
-  </si>
-  <si>
     <t>Statistical Calculations</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>Replication of process with R, SAS,stata (save the pdf report generated)</t>
-  </si>
-  <si>
-    <t>Check the presence of the minimal set of variables: patient ID, Description of the event, SOC, Serious, Related, Fatal, treatment group</t>
   </si>
   <si>
     <t>Minimal Set of variables is present</t>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>Check accepts valid SOC</t>
-  </si>
-  <si>
-    <t>Check invalid values (Serious, Related, Fatal)</t>
   </si>
   <si>
     <t>Randomly select 2 specific events, ideally 1 per group, and verify their integrity is mantained through all the transformations.</t>
@@ -214,13 +205,25 @@
     <t>Check accepts valid term</t>
   </si>
   <si>
-    <t>All SOC find correspondence in the allsoc file</t>
-  </si>
-  <si>
-    <t>All terms find correspondence in the allsoc file</t>
-  </si>
-  <si>
     <t>Check the variable title in the GROUP.csv file is a string &gt;=4 digits long</t>
+  </si>
+  <si>
+    <t>All variables in the title column should be longer than 3 digits</t>
+  </si>
+  <si>
+    <t>Check values for Serious, Related and Fatal in the events file</t>
+  </si>
+  <si>
+    <t>Only 1 and 0 should be used</t>
+  </si>
+  <si>
+    <t>Check the presence of the minimal set of variables in the events.csv file: patient ID, Description of the event, SOC, Serious, Related, Fatal, treatment group</t>
+  </si>
+  <si>
+    <t>All SOC find correspondence in the allsoc.csv file</t>
+  </si>
+  <si>
+    <t>All terms find correspondence in the allsoc.csv file</t>
   </si>
 </sst>
 </file>
@@ -264,12 +267,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,279 +564,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="106.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Statistical Calculations</t>
-  </si>
-  <si>
-    <t>Create and input data set with known values and compare the output from tool</t>
   </si>
   <si>
     <t>Same PT different SOC</t>
@@ -214,9 +211,6 @@
     <t>Check values for Serious, Related and Fatal in the events file</t>
   </si>
   <si>
-    <t>Only 1 and 0 should be used</t>
-  </si>
-  <si>
     <t>Check the presence of the minimal set of variables in the events.csv file: patient ID, Description of the event, SOC, Serious, Related, Fatal, treatment group</t>
   </si>
   <si>
@@ -224,6 +218,33 @@
   </si>
   <si>
     <t>All terms find correspondence in the allsoc.csv file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a safety summary set with known values </t>
+  </si>
+  <si>
+    <t>Compare safety summary created to input files</t>
+  </si>
+  <si>
+    <t>The safety summary is successfully created.</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Not as expected</t>
+  </si>
+  <si>
+    <t>the variable eutctId is not in the file.</t>
+  </si>
+  <si>
+    <t>Only 1 and 0 should be used as values for Serious, Related and Fatal</t>
+  </si>
+  <si>
+    <t>31 Jul 2019 BP</t>
+  </si>
+  <si>
+    <t>Error message: group data.frame does not have the correct variable names</t>
   </si>
 </sst>
 </file>
@@ -564,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +598,7 @@
     <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -643,144 +664,251 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,56 +916,61 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +983,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:E11 D17:E1048576</xm:sqref>
+          <xm:sqref>D1:E11 E22:E1048576 D22 D24:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -220,9 +220,6 @@
     <t>All terms find correspondence in the allsoc.csv file</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a safety summary set with known values </t>
-  </si>
-  <si>
     <t>Compare safety summary created to input files</t>
   </si>
   <si>
@@ -244,7 +241,44 @@
     <t>31 Jul 2019 BP</t>
   </si>
   <si>
-    <t>Error message: group data.frame does not have the correct variable names</t>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>GROUP.csv</t>
+  </si>
+  <si>
+    <t>NONSERIOUS.csv</t>
+  </si>
+  <si>
+    <t>SERIOUS.csv</t>
+  </si>
+  <si>
+    <t>SERIOUS.csv, all_soc</t>
+  </si>
+  <si>
+    <t>event.csv</t>
+  </si>
+  <si>
+    <t>Sums should correspond.</t>
+  </si>
+  <si>
+    <t>02 Aug 2019 BP</t>
+  </si>
+  <si>
+    <t>Create a safety summary set with known values using function safety.summary() and soc_term as Meddra index</t>
+  </si>
+  <si>
+    <t>Create a safety summary set with known values using function safety.summary() and meddra as Meddra index</t>
+  </si>
+  <si>
+    <t>The safety count is produced but an error is triggered: 
+"Error: Can't join on 'meddra' x 'soc' because of incompatible types (integer / character)"</t>
+  </si>
+  <si>
+    <t>Export the statistical calculation ia simple XML format file</t>
+  </si>
+  <si>
+    <t>file is successfully generated</t>
   </si>
 </sst>
 </file>
@@ -585,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,29 +630,30 @@
     <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -626,17 +661,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -646,20 +681,23 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,17 +708,20 @@
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>52</v>
@@ -689,17 +730,20 @@
         <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
@@ -707,19 +751,22 @@
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
@@ -727,19 +774,22 @@
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -747,17 +797,20 @@
         <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
@@ -765,17 +818,20 @@
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -783,17 +839,20 @@
         <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -801,175 +860,232 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -983,7 +1099,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:E11 E22:E1048576 D22 D24:D1048576</xm:sqref>
+          <xm:sqref>E1:F11 E22:F22 E26:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testing/Testing Script V0.1.xlsx
+++ b/testing/Testing Script V0.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>Eudract Project Testing</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Ensure zeros are present</t>
-  </si>
-  <si>
-    <t>Use an external trial real data and compare to validated output</t>
   </si>
   <si>
     <t>xslt conversion to simple</t>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>All variable names are present and match</t>
-  </si>
-  <si>
-    <t>validate simple.xml against an xsd schema in correct/incorrect cases</t>
   </si>
   <si>
     <t>check concatenation order is respected</t>
@@ -220,9 +214,6 @@
     <t>All terms find correspondence in the allsoc.csv file</t>
   </si>
   <si>
-    <t>Compare safety summary created to input files</t>
-  </si>
-  <si>
     <t>The safety summary is successfully created.</t>
   </si>
   <si>
@@ -271,14 +262,67 @@
     <t>Create a safety summary set with known values using function safety.summary() and meddra as Meddra index</t>
   </si>
   <si>
-    <t>The safety count is produced but an error is triggered: 
-"Error: Can't join on 'meddra' x 'soc' because of incompatible types (integer / character)"</t>
-  </si>
-  <si>
     <t>Export the statistical calculation ia simple XML format file</t>
   </si>
   <si>
     <t>file is successfully generated</t>
+  </si>
+  <si>
+    <t>Export the 3 .csv files separately</t>
+  </si>
+  <si>
+    <t>The 3 files are successfully created and contain data</t>
+  </si>
+  <si>
+    <t>Input: event.csv
+Output: safety_count</t>
+  </si>
+  <si>
+    <t>outputs: GROUP_test.csv
+SERIOUS_test.csv
+NON_SERIOUS_test.csv</t>
+  </si>
+  <si>
+    <t>21 Aug 2019 BP</t>
+  </si>
+  <si>
+    <t>GROUP_test.csv</t>
+  </si>
+  <si>
+    <t>output: simple_test.xml</t>
+  </si>
+  <si>
+    <t>validate simple.xml against an xsd schema in correct case</t>
+  </si>
+  <si>
+    <t>Outcome of validation is positive</t>
+  </si>
+  <si>
+    <t>events.csv, simple_test.xml</t>
+  </si>
+  <si>
+    <t>30 Aug 2019 BP</t>
+  </si>
+  <si>
+    <t>simple_test.xml</t>
+  </si>
+  <si>
+    <t>Zeros are present</t>
+  </si>
+  <si>
+    <t>Compare safety summary created to input files: subjectsAffectedBySeriousAdverseEvent</t>
+  </si>
+  <si>
+    <t>event.csv, group_test.csv</t>
+  </si>
+  <si>
+    <t>Compare safety summary created to input files: subjectsAffectedByNonSeriousAdverseEvent</t>
+  </si>
+  <si>
+    <t>Compare safety summary created to input files: deathsResultingFromAdverseEvents</t>
+  </si>
+  <si>
+    <t>File is present as simple_test.xml in the wd</t>
   </si>
 </sst>
 </file>
@@ -619,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +674,7 @@
     <col min="1" max="1" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" style="1" customWidth="1"/>
@@ -682,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -702,194 +746,194 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -897,196 +941,402 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1349,7 @@
           <x14:formula1>
             <xm:f>'drop down lists'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:F11 E22:F22 E26:F1048576</xm:sqref>
+          <xm:sqref>E1:F11 E22:F22 E47:F1048576 E37:F45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
